--- a/Ejemplo Insertion Sort.xlsx
+++ b/Ejemplo Insertion Sort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Desktop\ÁLVARO\TERCER_CURSO_2\COCO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Desktop\ÁLVARO\TERCER_CURSO_2\COCO\Ejemplo_Insertion_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CE7AC-490A-4C43-B514-D515C791128F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879960B0-2F07-452D-A386-BEA4E3800F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24A8A8E-76E4-4F88-948C-DC2D29AC39FC}"/>
   </bookViews>
@@ -225,6 +225,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13CF51A-70E7-4BD4-9A3E-A70A948500E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2495551"/>
+          <a:ext cx="5334000" cy="3248448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,7 +576,7 @@
   <dimension ref="B3:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,5 +1168,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Ejemplo Insertion Sort.xlsx
+++ b/Ejemplo Insertion Sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Desktop\ÁLVARO\TERCER_CURSO_2\COCO\Ejemplo_Insertion_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879960B0-2F07-452D-A386-BEA4E3800F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF90326-6117-4DA1-BC32-0690D5ADD0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24A8A8E-76E4-4F88-948C-DC2D29AC39FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>i</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Ejecutamos el programa línea a línea</t>
+  </si>
+  <si>
+    <t>Valores iniciales</t>
+  </si>
+  <si>
+    <t>Valores tras la primera instrucción del while</t>
+  </si>
+  <si>
+    <t>Valores tras la segunda instrucción del while</t>
+  </si>
+  <si>
+    <t>Valores tras la instrucción fuera del while</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -192,11 +204,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -210,6 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,15 +256,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9949</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -263,8 +287,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="2495551"/>
-          <a:ext cx="5334000" cy="3248448"/>
+          <a:off x="771525" y="2514600"/>
+          <a:ext cx="5324475" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC07C0-F999-4C68-9FE7-EF7C25D7D976}">
-  <dimension ref="B3:N38"/>
+  <dimension ref="B3:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -604,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -634,7 +658,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -662,7 +686,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -692,7 +716,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -715,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -737,6 +761,7 @@
       <c r="H9" s="1">
         <v>3</v>
       </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -773,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>1</v>
       </c>
@@ -786,8 +811,11 @@
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>1</v>
       </c>
@@ -800,8 +828,11 @@
       <c r="M12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J13">
         <v>1</v>
       </c>
@@ -814,8 +845,11 @@
       <c r="M13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J14">
         <v>1</v>
       </c>
@@ -828,8 +862,11 @@
       <c r="M14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>2</v>
       </c>
@@ -843,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>2</v>
       </c>

--- a/Ejemplo Insertion Sort.xlsx
+++ b/Ejemplo Insertion Sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Desktop\ÁLVARO\TERCER_CURSO_2\COCO\Ejemplo_Insertion_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF90326-6117-4DA1-BC32-0690D5ADD0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87AAC9-C0A6-469E-8C8A-8C20EE35392A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24A8A8E-76E4-4F88-948C-DC2D29AC39FC}"/>
   </bookViews>
@@ -87,18 +87,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF1BAE02"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -219,11 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,12 +239,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1BAE02"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -599,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC07C0-F999-4C68-9FE7-EF7C25D7D976}">
   <dimension ref="B3:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,22 +621,22 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
         <v>7</v>
       </c>
     </row>
@@ -650,13 +662,13 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -680,11 +692,11 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -708,13 +720,13 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
+      <c r="J6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -743,25 +755,25 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="13"/>
+      <c r="C9" s="13">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
